--- a/results/06-2024/comparison-deflators-06-2024.xlsx
+++ b/results/06-2024/comparison-deflators-06-2024.xlsx
@@ -617,16 +617,16 @@
         <v>0.0044</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0082</v>
+        <v>0.0084</v>
       </c>
       <c r="O2" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0072</v>
+        <v>0.0056</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0058</v>
+        <v>0.0051</v>
       </c>
       <c r="R2" t="n">
         <v>0.0054</v>
@@ -732,7 +732,7 @@
         <v>0.1832</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0467</v>
+        <v>0.0468</v>
       </c>
       <c r="F4" t="n">
         <v>-0.0341</v>
@@ -765,7 +765,7 @@
         <v>-0.0177</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0669</v>
+        <v>-0.0668</v>
       </c>
       <c r="Q4" t="n">
         <v>-0.029</v>
@@ -774,10 +774,10 @@
         <v>-0.0281</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.0266</v>
+        <v>-0.0265</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.0259</v>
+        <v>-0.0258</v>
       </c>
       <c r="U4" t="n">
         <v>-0.0039</v>
@@ -797,67 +797,67 @@
         <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3147</v>
+        <v>-0.3032</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.492</v>
+        <v>-0.4815</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2061</v>
+        <v>0.21</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1514</v>
+        <v>-0.1555</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3853</v>
+        <v>0.3784</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3518</v>
+        <v>-0.3526</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2561</v>
+        <v>-0.2549</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0607</v>
+        <v>0.0717</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.208</v>
+        <v>-0.1941</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0421</v>
+        <v>-0.0238</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1538</v>
+        <v>0.1716</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.3011</v>
+        <v>-0.2589</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.5268</v>
+        <v>-0.6888</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1567</v>
+        <v>-0.3357</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1161</v>
+        <v>-0.0309</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.4452</v>
+        <v>-0.2996</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.3174</v>
+        <v>-0.1719</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.1512</v>
+        <v>-0.0121</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.1881</v>
+        <v>-0.194</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.0981</v>
+        <v>-0.1227</v>
       </c>
       <c r="W5" t="n">
-        <v>-31.9821</v>
+        <v>-31.8701</v>
       </c>
     </row>
     <row r="6">
@@ -871,64 +871,64 @@
         <v>-0.016</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0135</v>
+        <v>-0.0136</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0221</v>
+        <v>-0.0222</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0484</v>
+        <v>-0.0485</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0708</v>
+        <v>-0.0709</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1067</v>
+        <v>0.1066</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0452</v>
+        <v>-0.0453</v>
       </c>
       <c r="J6" t="n">
-        <v>0.295</v>
+        <v>0.2949</v>
       </c>
       <c r="K6" t="n">
         <v>0.2573</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3082</v>
+        <v>0.3083</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2777</v>
+        <v>0.2779</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1541</v>
+        <v>0.1555</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0191</v>
+        <v>-0.016</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0184</v>
+        <v>-0.0271</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.0143</v>
+        <v>-0.0217</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.0108</v>
+        <v>-0.0166</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0067</v>
+        <v>0.0039</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.0047</v>
+        <v>-0.0044</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.0178</v>
+        <v>-0.0142</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.0361</v>
+        <v>-0.0292</v>
       </c>
       <c r="W6" t="n">
-        <v>-1.7925</v>
+        <v>-1.7932</v>
       </c>
     </row>
     <row r="7">
@@ -939,67 +939,67 @@
         <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0149</v>
+        <v>-0.0117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1127</v>
+        <v>0.1176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0635</v>
+        <v>0.069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1594</v>
+        <v>0.1625</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0114</v>
+        <v>0.0117</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0474</v>
+        <v>-0.0487</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1384</v>
+        <v>-0.1401</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1728</v>
+        <v>-0.1721</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1003</v>
+        <v>-0.0964</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.2751</v>
+        <v>-0.2682</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1622</v>
+        <v>-0.1529</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2068</v>
+        <v>-0.1984</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0958</v>
+        <v>-0.1261</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1357</v>
+        <v>0.0791</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0832</v>
+        <v>0.0212</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1153</v>
+        <v>0.0459</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0269</v>
+        <v>-0.0139</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0273</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0072</v>
+        <v>-0.0132</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0159</v>
+        <v>0.0031</v>
       </c>
       <c r="W7" t="n">
-        <v>-5.245</v>
+        <v>-5.1268</v>
       </c>
     </row>
     <row r="8">
@@ -1010,67 +1010,67 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4901</v>
+        <v>-0.4941</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4646</v>
+        <v>-0.47</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4198</v>
+        <v>-0.425</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7065</v>
+        <v>-0.7095</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.761</v>
+        <v>-0.762</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.382</v>
+        <v>-0.3832</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1352</v>
+        <v>-0.1377</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5622</v>
+        <v>0.5581</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6007</v>
+        <v>0.5948</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3669</v>
+        <v>0.3593</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4046</v>
+        <v>0.3952</v>
       </c>
       <c r="N8" t="n">
-        <v>0.303</v>
+        <v>0.2956</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1892</v>
+        <v>0.1467</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3291</v>
+        <v>0.2759</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2814</v>
+        <v>0.2413</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.1405</v>
+        <v>-0.093</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.1542</v>
+        <v>-0.1035</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.0797</v>
+        <v>-0.0674</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.0871</v>
+        <v>-0.0733</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.3232</v>
+        <v>-0.0247</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5992</v>
+        <v>7.5395</v>
       </c>
     </row>
     <row r="9">
@@ -1126,7 +1126,7 @@
         <v>-0.0224</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0153</v>
+        <v>-0.0152</v>
       </c>
       <c r="S9" t="n">
         <v>-0.0138</v>
@@ -1158,7 +1158,7 @@
         <v>0.1348</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1437</v>
+        <v>0.1438</v>
       </c>
       <c r="F10" t="n">
         <v>0.1244</v>
@@ -1185,25 +1185,25 @@
         <v>-0.0966</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.062</v>
+        <v>-0.0619</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.049</v>
+        <v>-0.0488</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0433</v>
+        <v>-0.0432</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0259</v>
+        <v>-0.0258</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0104</v>
+        <v>-0.0103</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.0099</v>
+        <v>-0.0098</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.0084</v>
+        <v>-0.0083</v>
       </c>
       <c r="U10" t="n">
         <v>-0.0076</v>
@@ -1256,16 +1256,16 @@
         <v>0.0098</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0112</v>
+        <v>0.0102</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0113</v>
+        <v>0.0063</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0084</v>
+        <v>0.0068</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.007</v>
+        <v>0.0063</v>
       </c>
       <c r="R11" t="n">
         <v>0.006</v>
@@ -1294,67 +1294,67 @@
         <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0307</v>
+        <v>-0.0263</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0238</v>
+        <v>-0.0174</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2107</v>
+        <v>0.2179</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8781</v>
+        <v>-0.8739</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1901</v>
+        <v>-0.1896</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.84</v>
+        <v>-0.8415</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4713</v>
+        <v>-0.4734</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.061</v>
+        <v>-0.0601</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0561</v>
+        <v>-0.0512</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0114</v>
+        <v>0.02</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1481</v>
+        <v>-0.1365</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0558</v>
+        <v>-0.0485</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0001</v>
+        <v>0.0371</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0278</v>
+        <v>0.0715</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0234</v>
+        <v>0.0681</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.1211</v>
+        <v>-0.0747</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.0878</v>
+        <v>-0.073</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.0773</v>
+        <v>-0.0725</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.1271</v>
+        <v>-0.1269</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.1179</v>
+        <v>-0.1177</v>
       </c>
       <c r="W12" t="n">
-        <v>-6.471</v>
+        <v>-6.4648</v>
       </c>
     </row>
     <row r="13">
@@ -1365,16 +1365,16 @@
         <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0634</v>
+        <v>0.0635</v>
       </c>
       <c r="D13" t="n">
-        <v>0.029</v>
+        <v>0.0291</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0267</v>
+        <v>0.0268</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0168</v>
+        <v>0.0169</v>
       </c>
       <c r="G13" t="n">
         <v>-0.0132</v>
@@ -1386,34 +1386,34 @@
         <v>-0.0122</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0114</v>
+        <v>-0.0113</v>
       </c>
       <c r="K13" t="n">
         <v>-0.01</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.1361</v>
+        <v>-0.1359</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1126</v>
+        <v>-0.1124</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1018</v>
+        <v>-0.1017</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0933</v>
+        <v>-0.0932</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.055</v>
+        <v>-0.0548</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0299</v>
+        <v>-0.0298</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0296</v>
+        <v>-0.0295</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0234</v>
+        <v>-0.0233</v>
       </c>
       <c r="T13" t="n">
         <v>0.0002</v>
@@ -1422,7 +1422,7 @@
         <v>0.0001</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="W13" t="n">
         <v>-0.0073</v>
@@ -1436,67 +1436,67 @@
         <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3546</v>
+        <v>0.3548</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1911</v>
+        <v>0.1914</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0198</v>
+        <v>0.0202</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0667</v>
+        <v>-0.0664</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1693</v>
+        <v>-0.1691</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.167</v>
+        <v>-0.1668</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0811</v>
+        <v>-0.0809</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.0639</v>
+        <v>-0.0636</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.3306</v>
+        <v>-0.3304</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.3432</v>
+        <v>-0.3429</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.1408</v>
+        <v>-0.1405</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.1049</v>
+        <v>-0.1047</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.2933</v>
+        <v>-0.2926</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.2637</v>
+        <v>-0.263</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1071</v>
+        <v>-0.1065</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.0593</v>
+        <v>-0.0588</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.0941</v>
+        <v>-0.0936</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.0701</v>
+        <v>-0.0697</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.032</v>
+        <v>-0.0316</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.0129</v>
+        <v>-0.0126</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.0739</v>
+        <v>-0.0735</v>
       </c>
     </row>
     <row r="15">
@@ -1507,31 +1507,31 @@
         <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0698</v>
+        <v>0.0705</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.9679</v>
+        <v>-0.9669</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.0281</v>
+        <v>-1.0271</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9516</v>
+        <v>-0.9507</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.4056</v>
+        <v>-1.405</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.9559</v>
+        <v>-0.9555</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3929</v>
+        <v>-0.3926</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.3877</v>
+        <v>-0.3875</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.2811</v>
+        <v>-0.281</v>
       </c>
       <c r="L15" t="n">
         <v>-0.1283</v>
@@ -1578,67 +1578,67 @@
         <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.4568</v>
+        <v>-2.4278</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.9731</v>
+        <v>-2.9441</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.1497</v>
+        <v>-3.1327</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.7536</v>
+        <v>-3.7568</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.5905</v>
+        <v>-4.6037</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.2874</v>
+        <v>-2.293</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5607</v>
+        <v>-0.565</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0638</v>
+        <v>0.0831</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1884</v>
+        <v>-0.158</v>
       </c>
       <c r="L16" t="n">
-        <v>0.528</v>
+        <v>0.5725</v>
       </c>
       <c r="M16" t="n">
-        <v>0.268</v>
+        <v>0.3154</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0221</v>
+        <v>0.0292</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.7649</v>
+        <v>-0.711</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.1133</v>
+        <v>-0.3727</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2202</v>
+        <v>0.1743</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.434</v>
+        <v>-0.357</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.6849</v>
+        <v>-0.5872</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.4549</v>
+        <v>-0.4066</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.4259</v>
+        <v>-0.5123</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.6203</v>
+        <v>-0.412</v>
       </c>
       <c r="W16" t="n">
-        <v>-73.4299</v>
+        <v>-73.1206</v>
       </c>
     </row>
     <row r="17">
@@ -1682,34 +1682,34 @@
         <v>27957</v>
       </c>
       <c r="N17" t="n">
-        <v>28255.9</v>
+        <v>28269.2</v>
       </c>
       <c r="O17" t="n">
-        <v>28629.5218</v>
+        <v>28642.9977</v>
       </c>
       <c r="P17" t="n">
-        <v>28939.608</v>
+        <v>28953.2298</v>
       </c>
       <c r="Q17" t="n">
-        <v>29226.9172</v>
+        <v>29240.6742</v>
       </c>
       <c r="R17" t="n">
-        <v>29526.7137</v>
+        <v>29540.6119</v>
       </c>
       <c r="S17" t="n">
-        <v>29833.8029</v>
+        <v>29847.8456</v>
       </c>
       <c r="T17" t="n">
-        <v>30134.8981</v>
+        <v>30149.0826</v>
       </c>
       <c r="U17" t="n">
-        <v>30420.6089</v>
+        <v>30434.9279</v>
       </c>
       <c r="V17" t="n">
-        <v>30686.5398</v>
+        <v>30700.9839</v>
       </c>
       <c r="W17" t="n">
-        <v>30956.2667</v>
+        <v>30970.8378</v>
       </c>
     </row>
     <row r="18">
@@ -1720,67 +1720,67 @@
         <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4774</v>
+        <v>0.4797</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1265</v>
+        <v>0.1288</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2003</v>
+        <v>0.2012</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4489</v>
+        <v>0.4479</v>
       </c>
       <c r="G18" t="n">
-        <v>0.771</v>
+        <v>0.7694</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2982</v>
+        <v>-0.2984</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.7267</v>
+        <v>-0.7264</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1277</v>
+        <v>-0.1251</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1396</v>
+        <v>-0.1365</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.3502</v>
+        <v>-0.3461</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1455</v>
+        <v>0.1493</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.113</v>
+        <v>-0.1102</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.2609</v>
+        <v>-0.2253</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.0269</v>
+        <v>-0.0158</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0063</v>
+        <v>0.0114</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.3112</v>
+        <v>-0.311</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.1954</v>
+        <v>-0.1953</v>
       </c>
       <c r="T18" t="n">
         <v>-0.0404</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.0914</v>
+        <v>-0.0913</v>
       </c>
       <c r="V18" t="n">
         <v>-0.0371</v>
       </c>
       <c r="W18" t="n">
-        <v>-6.3949</v>
+        <v>-6.3919</v>
       </c>
     </row>
     <row r="19">
@@ -1791,19 +1791,19 @@
         <v>24</v>
       </c>
       <c r="C19" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.0048</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.0049</v>
-      </c>
       <c r="F19" t="n">
-        <v>0.005</v>
+        <v>0.0051</v>
       </c>
       <c r="G19" t="n">
-        <v>0.005</v>
+        <v>0.0052</v>
       </c>
       <c r="H19" t="n">
         <v>0.0052</v>
@@ -1812,19 +1812,19 @@
         <v>0.0051</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0054</v>
+        <v>0.0051</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0054</v>
+        <v>0.005</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0056</v>
+        <v>0.005</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0056</v>
+        <v>0.0051</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0055</v>
+        <v>0.0051</v>
       </c>
       <c r="O19" t="n">
         <v>0.0051</v>
@@ -1862,55 +1862,55 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.0214</v>
+        <v>-1.0203</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0464</v>
+        <v>-0.0457</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.1435</v>
+        <v>-1.1428</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0319</v>
+        <v>-0.0316</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0221</v>
+        <v>-0.0218</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0328</v>
+        <v>-0.0325</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0211</v>
+        <v>-0.0207</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0207</v>
+        <v>-0.0204</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.4226</v>
+        <v>-0.4223</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0122</v>
+        <v>-0.012</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.012</v>
+        <v>-0.0118</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1124</v>
+        <v>-0.1122</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.1051</v>
+        <v>-0.1049</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.1019</v>
+        <v>-0.1017</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.0999</v>
+        <v>-0.0998</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.097</v>
+        <v>-0.0969</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.0942</v>
+        <v>-0.0941</v>
       </c>
       <c r="T20" t="n">
         <v>-0.001</v>
@@ -1933,31 +1933,31 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2626</v>
+        <v>-0.2618</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.0844</v>
+        <v>-1.0837</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.3675</v>
+        <v>-0.3672</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0609</v>
+        <v>-0.0607</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.9938</v>
+        <v>-0.9935</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0297</v>
+        <v>-0.0294</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0199</v>
+        <v>-0.0197</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.512</v>
+        <v>-0.5118</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.2476</v>
+        <v>-0.2475</v>
       </c>
       <c r="L21" t="n">
         <v>-0.0329</v>
@@ -2004,67 +2004,67 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.8497</v>
+        <v>-0.8374</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1259</v>
+        <v>-0.1147</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.6034</v>
+        <v>-0.5992</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.7141</v>
+        <v>-0.7185</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.074</v>
+        <v>-1.0812</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4851</v>
+        <v>0.4842</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8073</v>
+        <v>0.8086</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3865</v>
+        <v>0.3981</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4015</v>
+        <v>0.4163</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6465</v>
+        <v>0.6661</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2484</v>
+        <v>0.268</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1548</v>
+        <v>0.2164</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.1013</v>
+        <v>0.2111</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.1296</v>
+        <v>-0.0711</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.1107</v>
+        <v>-0.0965</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2051</v>
+        <v>0.1812</v>
       </c>
       <c r="S22" t="n">
-        <v>0.095</v>
+        <v>0.067</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.0492</v>
+        <v>-0.1014</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.0019</v>
+        <v>-0.0518</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.0384</v>
+        <v>-0.0934</v>
       </c>
       <c r="W22" t="n">
-        <v>-37.6925</v>
+        <v>-37.6317</v>
       </c>
     </row>
     <row r="23">
@@ -2084,10 +2084,10 @@
         <v>-0.0417</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0518</v>
+        <v>-0.0519</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0268</v>
+        <v>-0.0269</v>
       </c>
       <c r="H23" t="n">
         <v>-0.027</v>
@@ -2099,43 +2099,43 @@
         <v>-0.0419</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0305</v>
+        <v>-0.0306</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0209</v>
+        <v>-0.021</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.027</v>
+        <v>-0.0272</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0239</v>
+        <v>-0.0261</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.0205</v>
+        <v>-0.0233</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0137</v>
+        <v>-0.0165</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0033</v>
+        <v>0.0005</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0174</v>
+        <v>0.0145</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0029</v>
+        <v>-0.0058</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.0024</v>
+        <v>-0.0052</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0037</v>
+        <v>0.001</v>
       </c>
       <c r="V23" t="n">
-        <v>0.009</v>
+        <v>0.0063</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0755</v>
+        <v>0.0751</v>
       </c>
     </row>
     <row r="24">
@@ -2146,67 +2146,67 @@
         <v>24</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2361</v>
+        <v>0.2365</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0481</v>
+        <v>-0.0474</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0184</v>
+        <v>-0.0176</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0863</v>
+        <v>-0.0858</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0485</v>
+        <v>-0.0484</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0471</v>
+        <v>-0.0473</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0801</v>
+        <v>0.0799</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0983</v>
+        <v>0.0985</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1187</v>
+        <v>0.1193</v>
       </c>
       <c r="L24" t="n">
-        <v>0.219</v>
+        <v>0.2201</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0574</v>
+        <v>0.059</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1796</v>
+        <v>0.1637</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1336</v>
+        <v>0.091</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0958</v>
+        <v>0.0389</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2193</v>
+        <v>0.1597</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0475</v>
+        <v>0.0016</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.0005</v>
+        <v>-0.0241</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.0133</v>
+        <v>-0.0263</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.0143</v>
+        <v>-0.0242</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.0155</v>
+        <v>-0.0216</v>
       </c>
       <c r="W24" t="n">
-        <v>-1.0481</v>
+        <v>-0.9721</v>
       </c>
     </row>
     <row r="25">
@@ -2217,67 +2217,67 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1201</v>
+        <v>-0.1223</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0675</v>
+        <v>-0.0705</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1411</v>
+        <v>-0.1439</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1655</v>
+        <v>-0.1672</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1584</v>
+        <v>-0.159</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0472</v>
+        <v>0.0465</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1039</v>
+        <v>0.1026</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1508</v>
+        <v>0.1486</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3228</v>
+        <v>0.3197</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1954</v>
+        <v>0.1914</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1388</v>
+        <v>0.1338</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2521</v>
+        <v>0.2064</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2296</v>
+        <v>0.2058</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1318</v>
+        <v>0.1218</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1081</v>
+        <v>0.0847</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0747</v>
+        <v>0.055</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0025</v>
+        <v>-0.015</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0331</v>
+        <v>0.0165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0455</v>
+        <v>0.0298</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0102</v>
+        <v>0.0136</v>
       </c>
       <c r="W25" t="n">
-        <v>3.939</v>
+        <v>3.9351</v>
       </c>
     </row>
     <row r="26">
@@ -2324,13 +2324,13 @@
         <v>0.0094</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0131</v>
+        <v>0.0081</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0077</v>
+        <v>0.0061</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0066</v>
+        <v>0.0058</v>
       </c>
       <c r="R26" t="n">
         <v>0.0064</v>
@@ -2439,7 +2439,7 @@
         <v>-0.0005</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0006</v>
+        <v>-0.0005</v>
       </c>
       <c r="G28" t="n">
         <v>-0.0007</v>
@@ -2481,7 +2481,7 @@
         <v>-0.0013</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.0004</v>
+        <v>-0.0003</v>
       </c>
       <c r="U28" t="n">
         <v>-0.0003</v>
@@ -2501,22 +2501,22 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1561</v>
+        <v>-0.156</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2613</v>
+        <v>-0.2611</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.1432</v>
+        <v>-0.143</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1396</v>
+        <v>-0.1394</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.195</v>
+        <v>-0.1949</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0978</v>
+        <v>-0.0977</v>
       </c>
       <c r="I29" t="n">
         <v>-0.0459</v>
@@ -2528,40 +2528,40 @@
         <v>-0.0198</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0024</v>
+        <v>-0.0023</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0005</v>
+        <v>-0.0004</v>
       </c>
       <c r="N29" t="n">
+        <v>-0.0029</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.0012</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.0021</v>
+      </c>
+      <c r="R29" t="n">
         <v>-0.003</v>
       </c>
-      <c r="O29" t="n">
-        <v>-0.0016</v>
-      </c>
-      <c r="P29" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>-0.0025</v>
-      </c>
-      <c r="R29" t="n">
-        <v>-0.0034</v>
-      </c>
       <c r="S29" t="n">
-        <v>-0.0031</v>
+        <v>-0.0028</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.0023</v>
+        <v>-0.0022</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.0032</v>
+        <v>-0.003</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.003</v>
+        <v>-0.0029</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.0615</v>
+        <v>-0.0614</v>
       </c>
     </row>
     <row r="30">
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0025</v>
+        <v>-0.0025</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0001</v>
+        <v>-0.0015</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.0004</v>
+        <v>-0.0011</v>
       </c>
       <c r="R30" t="n">
         <v>-0.0002</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
       <c r="Q32" t="n">
         <v>0.0002</v>
@@ -2785,67 +2785,67 @@
         <v>52</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.0105</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>-0.0041</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>-0.0069</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0139</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0182</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0178</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.0423</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.071</v>
+        <v>-0.2331</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0062</v>
+        <v>-0.1727</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0304</v>
+        <v>0.1156</v>
       </c>
       <c r="R33" t="n">
-        <v>0.0236</v>
+        <v>0.1691</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0245</v>
+        <v>0.17</v>
       </c>
       <c r="T33" t="n">
-        <v>0.023</v>
+        <v>0.1621</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0186</v>
+        <v>0.0127</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0376</v>
+        <v>0.013</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1538</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="34">
@@ -2859,64 +2859,64 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0007</v>
+        <v>-0.0005</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0019</v>
+        <v>-0.0017</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0063</v>
+        <v>0.0077</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0065</v>
+        <v>0.0095</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0119</v>
+        <v>0.0031</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0086</v>
+        <v>0.0012</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0053</v>
+        <v>-0.0005</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0018</v>
+        <v>-0.001</v>
       </c>
       <c r="T34" t="n">
+        <v>-0.0013</v>
+      </c>
+      <c r="U34" t="n">
         <v>-0.0016</v>
       </c>
-      <c r="U34" t="n">
-        <v>-0.0051</v>
-      </c>
       <c r="V34" t="n">
-        <v>-0.0087</v>
+        <v>-0.0018</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2927,67 +2927,67 @@
         <v>52</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-0.0013</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-0.0016</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0093</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.0084</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0321</v>
+        <v>0.0019</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0773</v>
+        <v>0.0207</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0728</v>
+        <v>0.0108</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0667</v>
+        <v>-0.0027</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0305</v>
+        <v>-0.0103</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.0184</v>
+        <v>-0.043</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.0258</v>
+        <v>-0.0462</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.0317</v>
+        <v>-0.0445</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.0369</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="36">
@@ -2998,67 +2998,67 @@
         <v>52</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-0.0041</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-0.0054</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-0.0052</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-0.0013</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>-0.0041</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-0.0059</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0075</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>-0.0094</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-0.0074</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0104</v>
+        <v>-0.0321</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0004</v>
+        <v>-0.0528</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.0039</v>
+        <v>-0.0441</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.0807</v>
+        <v>-0.0333</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.0771</v>
+        <v>-0.0264</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.0337</v>
+        <v>-0.0214</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.033</v>
+        <v>-0.0192</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.3514</v>
+        <v>-0.0528</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.0019</v>
+        <v>-0.0616</v>
       </c>
     </row>
     <row r="37">
@@ -3111,7 +3111,7 @@
         <v>0.0002</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="R37" t="n">
         <v>0.0001</v>
@@ -3129,7 +3129,7 @@
         <v>0.0001</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="38">
@@ -3170,19 +3170,19 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="R38" t="n">
         <v>0.0001</v>
@@ -3197,7 +3197,7 @@
         <v>0.0001</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0018</v>
+        <v>-0.0032</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0002</v>
+        <v>-0.0014</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.0007</v>
+        <v>-0.0014</v>
       </c>
       <c r="R39" t="n">
         <v>-0.0004</v>
@@ -3282,67 +3282,67 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.0043</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.0064</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.0072</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-0.0015</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.0086</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.0073</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.0153</v>
+        <v>0.0219</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.0143</v>
+        <v>0.0294</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.01</v>
+        <v>0.0347</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.0063</v>
+        <v>0.0401</v>
       </c>
       <c r="S40" t="n">
-        <v>0.011</v>
+        <v>0.0257</v>
       </c>
       <c r="T40" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="U40" t="n">
         <v>0.0134</v>
       </c>
-      <c r="U40" t="n">
-        <v>0.0133</v>
-      </c>
       <c r="V40" t="n">
-        <v>0.0142</v>
+        <v>0.0144</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0374</v>
+        <v>0.0435</v>
       </c>
     </row>
     <row r="41">
@@ -3353,16 +3353,16 @@
         <v>52</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3377,28 +3377,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="P41" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="Q41" t="n">
         <v>0.0003</v>
       </c>
-      <c r="Q41" t="n">
-        <v>0.0002</v>
-      </c>
       <c r="R41" t="n">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="S41" t="n">
         <v>0.0002</v>
@@ -3424,67 +3424,67 @@
         <v>52</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.0002</v>
+        <v>0.0005</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0011</v>
+        <v>0.0018</v>
       </c>
       <c r="Q42" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="U42" t="n">
         <v>0.0006</v>
       </c>
-      <c r="R42" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="S42" t="n">
+      <c r="V42" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="W42" t="n">
         <v>0.0007</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0.0004</v>
       </c>
     </row>
     <row r="43">
@@ -3495,31 +3495,31 @@
         <v>52</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3566,67 +3566,67 @@
         <v>52</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.0169</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-0.0031</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-0.0132</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-0.0056</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-0.0043</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.0193</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.0304</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0007</v>
+        <v>0.0438</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0019</v>
+        <v>0.0455</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0063</v>
+        <v>0.0576</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.202</v>
+        <v>-0.148</v>
       </c>
       <c r="P44" t="n">
-        <v>0.093</v>
+        <v>-0.1663</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.1262</v>
+        <v>0.0803</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0361</v>
+        <v>0.1131</v>
       </c>
       <c r="S44" t="n">
-        <v>0.0082</v>
+        <v>0.1059</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.0143</v>
+        <v>0.034</v>
       </c>
       <c r="U44" t="n">
-        <v>-0.0344</v>
+        <v>-0.1209</v>
       </c>
       <c r="V44" t="n">
-        <v>-0.3383</v>
+        <v>-0.13</v>
       </c>
       <c r="W44" t="n">
-        <v>0.2993</v>
+        <v>0.6085</v>
       </c>
     </row>
     <row r="45">
@@ -3670,34 +3670,34 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="O45" t="n">
-        <v>136.8521</v>
+        <v>150.3279</v>
       </c>
       <c r="P45" t="n">
-        <v>184.9802</v>
+        <v>198.602</v>
       </c>
       <c r="Q45" t="n">
-        <v>202.0696</v>
+        <v>215.8267</v>
       </c>
       <c r="R45" t="n">
-        <v>212.5033</v>
+        <v>226.4015</v>
       </c>
       <c r="S45" t="n">
-        <v>207.8625</v>
+        <v>221.9052</v>
       </c>
       <c r="T45" t="n">
-        <v>192.996</v>
+        <v>207.1805</v>
       </c>
       <c r="U45" t="n">
-        <v>152.2668</v>
+        <v>166.5858</v>
       </c>
       <c r="V45" t="n">
-        <v>109.6917</v>
+        <v>124.1358</v>
       </c>
       <c r="W45" t="n">
-        <v>68.5955</v>
+        <v>83.1665</v>
       </c>
     </row>
     <row r="46">
@@ -3708,67 +3708,67 @@
         <v>52</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.0023</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-0.0017</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.0028</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.0293</v>
+        <v>0.0063</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0037</v>
+        <v>0.0147</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0047</v>
+        <v>0.0098</v>
       </c>
       <c r="R46" t="n">
-        <v>0.0055</v>
+        <v>0.0056</v>
       </c>
       <c r="S46" t="n">
-        <v>0.0048</v>
+        <v>0.0049</v>
       </c>
       <c r="T46" t="n">
         <v>0.0043</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0048</v>
+        <v>0.0049</v>
       </c>
       <c r="V46" t="n">
         <v>0.006</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0276</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="47">
@@ -3779,19 +3779,19 @@
         <v>52</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3800,19 +3800,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
       <c r="O47" t="n">
         <v>-0.0002</v>
@@ -3850,55 +3850,55 @@
         <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0005</v>
+        <v>0.0007</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0006</v>
+        <v>0.0008</v>
       </c>
       <c r="R48" t="n">
-        <v>0.0007</v>
+        <v>0.0008</v>
       </c>
       <c r="S48" t="n">
-        <v>0.0007</v>
+        <v>0.0008</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -3921,31 +3921,31 @@
         <v>52</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -3992,67 +3992,67 @@
         <v>52</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.0124</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.0112</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>-0.0044</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>-0.0072</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>0.0117</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>0.0148</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>0.0616</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.1505</v>
+        <v>0.1618</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0194</v>
+        <v>0.0779</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0261</v>
+        <v>0.0403</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0161</v>
+        <v>-0.0079</v>
       </c>
       <c r="S50" t="n">
-        <v>0.0184</v>
+        <v>-0.0096</v>
       </c>
       <c r="T50" t="n">
-        <v>0.0236</v>
+        <v>-0.0286</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0246</v>
+        <v>-0.0253</v>
       </c>
       <c r="V50" t="n">
-        <v>0.0341</v>
+        <v>-0.0209</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1628</v>
+        <v>0.2236</v>
       </c>
     </row>
     <row r="51">
@@ -4087,43 +4087,43 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.004</v>
+        <v>-0.0068</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.0049</v>
+        <v>-0.0078</v>
       </c>
       <c r="Q51" t="n">
-        <v>-0.0049</v>
+        <v>-0.0078</v>
       </c>
       <c r="R51" t="n">
-        <v>-0.0054</v>
+        <v>-0.0082</v>
       </c>
       <c r="S51" t="n">
-        <v>-0.0052</v>
+        <v>-0.0081</v>
       </c>
       <c r="T51" t="n">
-        <v>-0.0049</v>
+        <v>-0.0077</v>
       </c>
       <c r="U51" t="n">
-        <v>-0.004</v>
+        <v>-0.0068</v>
       </c>
       <c r="V51" t="n">
-        <v>-0.0037</v>
+        <v>-0.0064</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="52">
@@ -4134,67 +4134,67 @@
         <v>52</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>-0.0159</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0184</v>
+        <v>-0.0242</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0392</v>
+        <v>-0.0177</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.0388</v>
+        <v>-0.0208</v>
       </c>
       <c r="R52" t="n">
-        <v>0.0402</v>
+        <v>-0.0057</v>
       </c>
       <c r="S52" t="n">
-        <v>0.0232</v>
+        <v>-0.0005</v>
       </c>
       <c r="T52" t="n">
-        <v>0.0032</v>
+        <v>-0.0098</v>
       </c>
       <c r="U52" t="n">
-        <v>-0.0056</v>
+        <v>-0.0154</v>
       </c>
       <c r="V52" t="n">
-        <v>-0.0141</v>
+        <v>-0.0201</v>
       </c>
       <c r="W52" t="n">
-        <v>-0.0368</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="53">
@@ -4205,67 +4205,67 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>-0.0028</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>-0.0017</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>-0.0006</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>-0.0014</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>-0.0032</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>-0.0051</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>-0.0457</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.0267</v>
+        <v>-0.0504</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.0432</v>
+        <v>-0.0532</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.0325</v>
+        <v>-0.056</v>
       </c>
       <c r="R53" t="n">
-        <v>-0.0239</v>
+        <v>-0.0437</v>
       </c>
       <c r="S53" t="n">
-        <v>-0.0217</v>
+        <v>-0.0393</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.0211</v>
+        <v>-0.0377</v>
       </c>
       <c r="U53" t="n">
-        <v>-0.0191</v>
+        <v>-0.0348</v>
       </c>
       <c r="V53" t="n">
-        <v>-0.0164</v>
+        <v>-0.0131</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0154</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="54">
@@ -4312,13 +4312,13 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0043</v>
+        <v>-0.0007</v>
       </c>
       <c r="P54" t="n">
-        <v>-0.0003</v>
+        <v>-0.0019</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.0004</v>
+        <v>-0.0012</v>
       </c>
       <c r="R54" t="n">
         <v>-0.0002</v>
@@ -4489,19 +4489,19 @@
         <v>52</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4516,37 +4516,37 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.0002</v>
+        <v>0.0002</v>
       </c>
       <c r="P57" t="n">
-        <v>-0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="Q57" t="n">
-        <v>-0.0001</v>
+        <v>0.0004</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="U57" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="W57" t="n">
         <v>0.0004</v>
